--- a/clusters_histograms.xlsx
+++ b/clusters_histograms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/20336ab9fef5e83e/Desktop/תואר שני/שנה ב/סמסטר א/מודלים הסתברותיים/תרגילים/ex3_stat_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{0ADD0C81-CCD1-4FC2-BD2D-56A93D4553A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FD3D57E-9638-4A1B-94D7-3B377F9A1DBF}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{0ADD0C81-CCD1-4FC2-BD2D-56A93D4553A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EFE1D5C-92F9-4619-A98D-3D184538E3DB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{E450AD86-1EC5-45DC-8D07-02ACD6BEECBD}"/>
   </bookViews>
@@ -230,25 +230,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>340</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -472,7 +472,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Cluster 5: interest</a:t>
+              <a:t>Cluster 7: grain</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -522,7 +522,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -579,31 +579,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>127</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -931,10 +931,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>195</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11</c:v>
@@ -943,16 +943,16 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1170,7 +1170,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Cluster 7: grain</a:t>
+              <a:t>Cluster 5: interest</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1220,7 +1220,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1277,31 +1277,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>144</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1632,25 +1632,25 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1975,25 +1975,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>183</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
@@ -2327,28 +2327,28 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2673,31 +2673,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>22</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3022,25 +3022,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>127</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
@@ -8490,25 +8490,25 @@
             <v>6</v>
           </cell>
           <cell r="B2">
-            <v>340</v>
+            <v>347</v>
           </cell>
           <cell r="C2">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="D2">
             <v>1</v>
           </cell>
           <cell r="E2">
-            <v>38</v>
+            <v>26</v>
           </cell>
           <cell r="F2">
             <v>6</v>
           </cell>
           <cell r="G2">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="H2">
-            <v>44</v>
+            <v>29</v>
           </cell>
           <cell r="I2">
             <v>1</v>
@@ -8519,34 +8519,34 @@
         </row>
         <row r="3">
           <cell r="A3">
-            <v>5</v>
+            <v>7</v>
           </cell>
           <cell r="B3">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="C3">
-            <v>82</v>
+            <v>7</v>
           </cell>
           <cell r="D3">
-            <v>12</v>
+            <v>155</v>
           </cell>
           <cell r="E3">
-            <v>31</v>
+            <v>26</v>
           </cell>
           <cell r="F3">
-            <v>76</v>
+            <v>13</v>
           </cell>
           <cell r="G3">
-            <v>127</v>
+            <v>1</v>
           </cell>
           <cell r="H3">
-            <v>4</v>
+            <v>9</v>
           </cell>
           <cell r="I3">
-            <v>5</v>
+            <v>84</v>
           </cell>
           <cell r="J3">
-            <v>5</v>
+            <v>66</v>
           </cell>
         </row>
         <row r="4">
@@ -8557,10 +8557,10 @@
             <v>0</v>
           </cell>
           <cell r="C4">
-            <v>195</v>
+            <v>196</v>
           </cell>
           <cell r="D4">
-            <v>16</v>
+            <v>14</v>
           </cell>
           <cell r="E4">
             <v>11</v>
@@ -8569,48 +8569,48 @@
             <v>7</v>
           </cell>
           <cell r="G4">
-            <v>97</v>
+            <v>112</v>
           </cell>
           <cell r="H4">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="I4">
-            <v>13</v>
+            <v>12</v>
           </cell>
           <cell r="J4">
-            <v>6</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5">
+            <v>5</v>
+          </cell>
+          <cell r="B5">
             <v>7</v>
           </cell>
-          <cell r="B5">
-            <v>0</v>
-          </cell>
           <cell r="C5">
-            <v>9</v>
+            <v>82</v>
           </cell>
           <cell r="D5">
-            <v>144</v>
+            <v>12</v>
           </cell>
           <cell r="E5">
-            <v>30</v>
+            <v>32</v>
           </cell>
           <cell r="F5">
-            <v>13</v>
+            <v>77</v>
           </cell>
           <cell r="G5">
-            <v>2</v>
+            <v>115</v>
           </cell>
           <cell r="H5">
-            <v>12</v>
+            <v>3</v>
           </cell>
           <cell r="I5">
-            <v>79</v>
+            <v>5</v>
           </cell>
           <cell r="J5">
-            <v>56</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="6">
@@ -8624,25 +8624,25 @@
             <v>7</v>
           </cell>
           <cell r="D6">
-            <v>92</v>
+            <v>98</v>
           </cell>
           <cell r="E6">
-            <v>43</v>
+            <v>44</v>
           </cell>
           <cell r="F6">
-            <v>19</v>
+            <v>14</v>
           </cell>
           <cell r="G6">
             <v>12</v>
           </cell>
           <cell r="H6">
-            <v>24</v>
+            <v>21</v>
           </cell>
           <cell r="I6">
             <v>60</v>
           </cell>
           <cell r="J6">
-            <v>33</v>
+            <v>38</v>
           </cell>
         </row>
         <row r="7">
@@ -8650,25 +8650,25 @@
             <v>8</v>
           </cell>
           <cell r="B7">
-            <v>8</v>
+            <v>9</v>
           </cell>
           <cell r="C7">
-            <v>47</v>
+            <v>44</v>
           </cell>
           <cell r="D7">
+            <v>16</v>
+          </cell>
+          <cell r="E7">
             <v>15</v>
           </cell>
-          <cell r="E7">
-            <v>14</v>
-          </cell>
           <cell r="F7">
-            <v>183</v>
+            <v>193</v>
           </cell>
           <cell r="G7">
             <v>7</v>
           </cell>
           <cell r="H7">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="I7">
             <v>3</v>
@@ -8685,28 +8685,28 @@
             <v>2</v>
           </cell>
           <cell r="C8">
-            <v>71</v>
+            <v>87</v>
           </cell>
           <cell r="D8">
-            <v>63</v>
+            <v>55</v>
           </cell>
           <cell r="E8">
-            <v>21</v>
+            <v>16</v>
           </cell>
           <cell r="F8">
+            <v>17</v>
+          </cell>
+          <cell r="G8">
+            <v>15</v>
+          </cell>
+          <cell r="H8">
+            <v>18</v>
+          </cell>
+          <cell r="I8">
             <v>19</v>
           </cell>
-          <cell r="G8">
-            <v>12</v>
-          </cell>
-          <cell r="H8">
-            <v>22</v>
-          </cell>
-          <cell r="I8">
-            <v>22</v>
-          </cell>
           <cell r="J8">
-            <v>40</v>
+            <v>33</v>
           </cell>
         </row>
         <row r="9">
@@ -8714,31 +8714,31 @@
             <v>1</v>
           </cell>
           <cell r="B9">
+            <v>8</v>
+          </cell>
+          <cell r="C9">
             <v>13</v>
           </cell>
-          <cell r="C9">
-            <v>22</v>
-          </cell>
           <cell r="D9">
-            <v>35</v>
+            <v>29</v>
           </cell>
           <cell r="E9">
-            <v>34</v>
+            <v>51</v>
           </cell>
           <cell r="F9">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="G9">
-            <v>8</v>
+            <v>4</v>
           </cell>
           <cell r="H9">
-            <v>64</v>
+            <v>96</v>
           </cell>
           <cell r="I9">
-            <v>11</v>
+            <v>10</v>
           </cell>
           <cell r="J9">
-            <v>11</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="10">
@@ -8746,25 +8746,25 @@
             <v>4</v>
           </cell>
           <cell r="B10">
-            <v>22</v>
+            <v>20</v>
           </cell>
           <cell r="C10">
-            <v>12</v>
+            <v>10</v>
           </cell>
           <cell r="D10">
-            <v>10</v>
+            <v>8</v>
           </cell>
           <cell r="E10">
-            <v>127</v>
+            <v>128</v>
           </cell>
           <cell r="F10">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="G10">
-            <v>8</v>
+            <v>6</v>
           </cell>
           <cell r="H10">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="I10">
             <v>3</v>
@@ -8777,6 +8777,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9098,8 +9102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989867CB-79F8-4617-835D-7404ED5C4E7E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
